--- a/data/trans_orig/P55S7-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF7D810-87C5-4CC1-BE66-A31EEADB396F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E451C0B-DC5A-4C92-8574-10190AFF0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAA32B67-84A3-4BD5-B387-582F98FEF478}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33A877E1-302E-4A34-9E8A-8FFB5894037A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9DF1E-E3E6-496B-8B97-5ADDB424325A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ABE75B-CBE6-4DD8-A832-C6155183F6F3}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S7-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E451C0B-DC5A-4C92-8574-10190AFF0D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC02476-0EC8-4CB2-86DE-B1AE23B41615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33A877E1-302E-4A34-9E8A-8FFB5894037A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A980969-F3DB-4493-9ADA-8146FAC7F0D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ABE75B-CBE6-4DD8-A832-C6155183F6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E0EB7-4FF2-44A3-AB4C-84D0F3F33FDF}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
